--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_11.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438336.2585840487</v>
+        <v>438336.2585840486</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.3994514381</v>
       </c>
     </row>
     <row r="8">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -710,19 +710,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,28 +738,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="G5" t="n">
-        <v>103.0088977318019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>241.0142888776591</v>
@@ -941,10 +941,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F8" t="n">
-        <v>71.01467844038818</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1154,7 +1154,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,22 +1412,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>3.833957768458675</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>130.4655268502615</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="U14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,25 +1686,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1734,19 +1734,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>90.38893773807641</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1923,22 +1923,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -1971,16 +1971,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>147.2379120664689</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>206.6461104975764</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,76 +2315,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="V23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>112.2849306638597</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>172.1140166915638</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>40.47627913313517</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>10.15822114686786</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>57.06684086111776</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,56 +2801,56 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888296</v>
       </c>
     </row>
     <row r="30">
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>57.89465792164899</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2883,7 +2883,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>53.8785034707274</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2928,16 +2928,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3010,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3035,64 +3035,64 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,28 +3108,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,22 +3153,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>222.3082294474576</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3193,46 +3193,46 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>66.08036942169961</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>20.00655925198969</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>241.0142888776591</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,10 +3521,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,22 +3588,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>32.11356177151222</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3749,16 +3749,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>72.47049842454874</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -3782,22 +3782,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>39.77286532336496</v>
       </c>
     </row>
     <row r="42">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -3882,7 +3882,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>35.40726547353844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3910,61 +3910,61 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3986,19 +3986,19 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,22 +4019,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,16 +4056,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>151.4741327147726</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>107.0462203894556</v>
       </c>
     </row>
     <row r="46">
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V2" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W2" t="n">
-        <v>122.6530896684844</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4507,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F5" t="n">
-        <v>591.4512093066566</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G5" t="n">
         <v>487.4018176583718</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4650,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4741,10 +4741,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4884,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>726.4525409563269</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5157,13 +5157,13 @@
         <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5218,7 +5218,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
         <v>19.28114311021272</v>
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
         <v>19.28114311021272</v>
@@ -5306,22 +5306,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y14" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="U14" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V14" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W14" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X14" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
         <v>20.03527576299844</v>
@@ -5364,13 +5364,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5382,25 +5382,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>862.8876260635219</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X15" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y15" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>122.6530896684844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>862.8876260635219</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H18" t="n">
         <v>110.334904905842</v>
@@ -5595,16 +5595,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5619,25 +5619,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>862.8876260635219</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W18" t="n">
-        <v>862.8876260635219</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X18" t="n">
-        <v>862.8876260635219</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y18" t="n">
-        <v>862.8876260635219</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="19">
@@ -5710,7 +5710,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E20" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5795,7 +5795,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>278.55024192591</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>278.55024192591</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>278.55024192591</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X21" t="n">
-        <v>278.55024192591</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y21" t="n">
-        <v>278.55024192591</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="22">
@@ -5938,19 +5938,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6020,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>222.9998941357428</v>
+        <v>307.8574406365461</v>
       </c>
       <c r="C24" t="n">
-        <v>222.9998941357428</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D24" t="n">
-        <v>222.9998941357428</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E24" t="n">
-        <v>222.9998941357428</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F24" t="n">
-        <v>222.9998941357428</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G24" t="n">
-        <v>109.5807722530562</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>634.6640077999109</v>
+        <v>515.6177394015001</v>
       </c>
       <c r="V24" t="n">
-        <v>634.6640077999109</v>
+        <v>515.6177394015001</v>
       </c>
       <c r="W24" t="n">
-        <v>391.2152311558108</v>
+        <v>515.6177394015001</v>
       </c>
       <c r="X24" t="n">
-        <v>391.2152311558108</v>
+        <v>515.6177394015001</v>
       </c>
       <c r="Y24" t="n">
-        <v>391.2152311558108</v>
+        <v>307.8574406365461</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>802.5825927271064</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C26" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V26" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W26" t="n">
-        <v>802.5825927271064</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X26" t="n">
-        <v>802.5825927271064</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y26" t="n">
-        <v>802.5825927271064</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>352.9294114938717</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="C27" t="n">
-        <v>178.4763822127447</v>
+        <v>77.67854936008709</v>
       </c>
       <c r="D27" t="n">
-        <v>29.54197255149339</v>
+        <v>77.67854936008709</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>77.67854936008709</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>77.67854936008709</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>77.67854936008709</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>77.67854936008709</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W27" t="n">
-        <v>728.9050472788936</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X27" t="n">
-        <v>728.9050472788936</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y27" t="n">
-        <v>521.1447485139397</v>
+        <v>252.1315786412141</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6494,19 +6494,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>380.2300195200815</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C30" t="n">
-        <v>380.2300195200815</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D30" t="n">
-        <v>380.2300195200815</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E30" t="n">
-        <v>220.992564514626</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F30" t="n">
-        <v>74.45800654151097</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
         <v>20.03527576299844</v>
@@ -6546,16 +6546,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X30" t="n">
-        <v>756.2056553051034</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y30" t="n">
-        <v>548.4453565401495</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="31">
@@ -6658,7 +6658,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,13 +6786,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
         <v>19.28114311021272</v>
@@ -6880,28 +6880,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>394.2008556776262</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C36" t="n">
-        <v>327.4530077769195</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,16 +7023,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>562.4161926976942</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>562.4161926976942</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>562.4161926976942</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="37">
@@ -7126,7 +7126,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G38" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>554.1102621044483</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>554.1102621044483</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>554.1102621044483</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>394.8728070989928</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>327.2640844659515</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W39" t="n">
-        <v>83.81530782185143</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X39" t="n">
-        <v>83.81530782185143</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y39" t="n">
-        <v>83.81530782185143</v>
+        <v>554.1102621044483</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>348.0024326625565</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C41" t="n">
-        <v>348.0024326625565</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D41" t="n">
-        <v>348.0024326625565</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E41" t="n">
-        <v>348.0024326625565</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F41" t="n">
-        <v>104.5536560184564</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I41" t="n">
         <v>31.35113235729608</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T41" t="n">
-        <v>591.4512093066566</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U41" t="n">
-        <v>591.4512093066566</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V41" t="n">
-        <v>348.0024326625565</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W41" t="n">
-        <v>348.0024326625565</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X41" t="n">
-        <v>348.0024326625565</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y41" t="n">
-        <v>348.0024326625565</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N42" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7518,22 +7518,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U42" t="n">
-        <v>533.6469426057913</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V42" t="n">
-        <v>298.4948343740486</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W42" t="n">
-        <v>55.04605772994853</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7612,7 +7612,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.6083788665362</v>
+        <v>754.7601307206374</v>
       </c>
       <c r="C45" t="n">
-        <v>720.6083788665362</v>
+        <v>580.3071014395105</v>
       </c>
       <c r="D45" t="n">
-        <v>571.6739692052849</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="E45" t="n">
-        <v>418.6697947459187</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F45" t="n">
         <v>272.1352367728036</v>
@@ -7728,49 +7728,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y45" t="n">
-        <v>720.6083788665362</v>
+        <v>754.7601307206374</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -8298,10 +8298,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8310,10 +8310,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8781,13 +8781,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9012,16 +9012,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,19 +9243,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133072</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,19 +10194,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10434,16 +10434,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,7 +22553,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>287.5198830785557</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>267.3928735857801</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22626,28 +22626,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,22 +22671,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22793,10 +22793,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>185.9922493601736</v>
       </c>
       <c r="G5" t="n">
-        <v>312.2938397833332</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>98.46051323810809</v>
@@ -22829,10 +22829,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22863,25 +22863,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22908,22 +22908,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23027,10 +23027,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F8" t="n">
-        <v>335.8613673013232</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -23042,7 +23042,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,10 +23063,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23264,19 +23264,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,22 +23300,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23358,7 +23358,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23397,7 +23397,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>247.8610253924609</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.82786452690794</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23546,22 +23546,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="15">
@@ -23574,25 +23574,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,19 +23622,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>120.0869518323295</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23811,22 +23811,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23859,16 +23859,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23950,10 +23950,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,16 +23975,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24066,10 +24066,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>19.29527158339846</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24178,7 +24178,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24260,19 +24260,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>384.4284425830174</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24297,16 +24297,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>25.05858649935094</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,25 +24333,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>53.82736538941106</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24409,13 +24409,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24443,19 +24443,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>324.7966126378724</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24497,13 +24497,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,16 +24519,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>147.4868593085331</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24540,10 +24540,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>32.32979199029732</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,13 +24567,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,10 +24689,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24734,10 +24734,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>185.901842367224</v>
       </c>
     </row>
     <row r="30">
@@ -24756,13 +24756,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>89.55040764298977</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24771,7 +24771,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>83.46501369248324</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24816,16 +24816,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24898,10 +24898,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24923,19 +24923,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24971,16 +24971,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,28 +24996,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,22 +25041,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>10.49235770196771</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25169,7 +25169,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25208,7 +25208,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25220,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>106.6281295666161</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,13 +25248,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>92.22888498450678</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,25 +25281,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25366,10 +25366,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>342.2575625303454</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>113.6687527430239</v>
@@ -25400,7 +25400,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>405.0665496686752</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25409,10 +25409,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,10 +25433,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25445,7 +25445,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>102.644360585345</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25476,22 +25476,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>112.9556506218717</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,25 +25518,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25564,7 +25564,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25591,10 +25591,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25637,16 +25637,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8322390905863</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25670,22 +25670,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>346.4650733326886</v>
       </c>
     </row>
     <row r="42">
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25758,7 +25758,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25770,7 +25770,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="44">
@@ -25874,19 +25874,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>169.9996104372708</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,22 +25907,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>233.3417714764288</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,16 +25944,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>6.17094774062835</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>98.63647538784875</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,7 +26041,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="C2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>91388.36989223279</v>
       </c>
-      <c r="D2" t="n">
-        <v>91388.3698922328</v>
-      </c>
       <c r="E2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="F2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="G2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="H2" t="n">
         <v>91388.3698922328</v>
@@ -26335,10 +26335,10 @@
         <v>91388.3698922328</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="L2" t="n">
         <v>91388.3698922328</v>
@@ -26347,13 +26347,13 @@
         <v>91388.36989223282</v>
       </c>
       <c r="N2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="O2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="P2" t="n">
         <v>91388.36989223283</v>
-      </c>
-      <c r="O2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="P2" t="n">
-        <v>91388.3698922328</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.86290078054</v>
+        <v>-37841.86290078057</v>
       </c>
       <c r="C6" t="n">
-        <v>42927.56863076715</v>
+        <v>42927.56863076719</v>
       </c>
       <c r="D6" t="n">
         <v>42927.56863076716</v>
       </c>
       <c r="E6" t="n">
-        <v>76555.16863076719</v>
+        <v>76555.16863076715</v>
       </c>
       <c r="F6" t="n">
         <v>76555.16863076716</v>
       </c>
       <c r="G6" t="n">
-        <v>76555.16863076719</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="H6" t="n">
         <v>76555.16863076716</v>
@@ -26543,10 +26543,10 @@
         <v>76555.16863076716</v>
       </c>
       <c r="J6" t="n">
-        <v>13495.22603166096</v>
+        <v>13495.22603166095</v>
       </c>
       <c r="K6" t="n">
-        <v>76555.16863076718</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="L6" t="n">
         <v>76555.16863076716</v>
@@ -26555,13 +26555,13 @@
         <v>76555.16863076718</v>
       </c>
       <c r="N6" t="n">
+        <v>76555.16863076716</v>
+      </c>
+      <c r="O6" t="n">
+        <v>76555.16863076718</v>
+      </c>
+      <c r="P6" t="n">
         <v>76555.16863076719</v>
-      </c>
-      <c r="O6" t="n">
-        <v>76555.16863076719</v>
-      </c>
-      <c r="P6" t="n">
-        <v>76555.16863076716</v>
       </c>
     </row>
   </sheetData>
@@ -34948,7 +34948,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,10 +35018,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35030,10 +35030,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35182,7 +35182,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35501,13 +35501,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35732,16 +35732,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37391,19 +37391,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438336.2585840486</v>
+        <v>440041.0145983153</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514381</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -905,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>220.8837963815379</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -941,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -978,25 +980,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,16 +1028,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>37.10634673358876</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1139,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
@@ -1154,7 +1156,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1376,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
@@ -1391,7 +1393,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1467,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1509,7 +1511,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1552,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,68 +1606,68 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C14" t="n">
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D14" t="n">
+      <c r="V14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1707,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1746,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>3.833957768458675</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,10 +1809,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,58 +1855,58 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1923,22 +1925,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -1971,16 +1973,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>147.2379120664689</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2059,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2211,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>118.3634851578964</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,7 +2222,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2290,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,22 +2362,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.73723617201896</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>149.5653839441606</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,16 +2411,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>172.1140166915638</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2606,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>57.06684086111776</v>
+        <v>32.91567825744907</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2688,10 +2690,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2710,64 +2712,64 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>57.89465792164899</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2934,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2989,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3044,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,28 +3073,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>99.18344507946722</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -3126,7 +3128,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3275,19 +3277,19 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3326,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3360,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>20.00655925198969</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,10 +3410,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>230.8744955960827</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>241.0142888776591</v>
@@ -3524,7 +3526,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3591,19 +3593,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>32.11356177151222</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>39.97466500197062</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3636,7 +3638,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3676,40 +3678,40 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3740,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3758,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>39.77286532336496</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.6683215414929</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3867,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3986,64 +3988,64 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S44" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V44" t="n">
-        <v>94.41048699370604</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4056,22 +4058,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>107.0462203894556</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4135,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114.6452713866835</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C2" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>601.5428246748836</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V2" t="n">
-        <v>601.5428246748836</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W2" t="n">
-        <v>358.0940480307835</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="X2" t="n">
-        <v>114.6452713866835</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="Y2" t="n">
-        <v>114.6452713866835</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4510,28 +4512,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F5" t="n">
         <v>730.8505943024719</v>
@@ -4589,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4674,22 +4676,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
     </row>
     <row r="8">
@@ -4787,19 +4789,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4884,16 +4886,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E11" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F11" t="n">
-        <v>718.7806050553886</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5130,13 +5132,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5157,13 +5159,13 @@
         <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O15" t="n">
         <v>781.4136778972854</v>
@@ -5394,13 +5396,13 @@
         <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5455,31 +5457,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5543,22 +5545,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.334904905842</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C18" t="n">
-        <v>110.334904905842</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>110.334904905842</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
         <v>110.334904905842</v>
@@ -5595,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5621,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>110.334904905842</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>110.334904905842</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X18" t="n">
-        <v>110.334904905842</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.334904905842</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="19">
@@ -5707,7 +5709,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5792,10 +5794,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5835,7 +5837,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
         <v>542.809531908403</v>
@@ -5859,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>844.4980795935692</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>844.4980795935692</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="W21" t="n">
-        <v>485.4562706347935</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X21" t="n">
-        <v>277.6047704292607</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y21" t="n">
-        <v>69.84447166430675</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5938,13 +5940,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>307.8574406365461</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="C24" t="n">
-        <v>133.4044113554191</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D24" t="n">
-        <v>133.4044113554191</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E24" t="n">
-        <v>133.4044113554191</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F24" t="n">
-        <v>133.4044113554191</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G24" t="n">
-        <v>133.4044113554191</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6074,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>515.6177394015001</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>515.6177394015001</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>515.6177394015001</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>515.6177394015001</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y24" t="n">
-        <v>307.8574406365461</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="25">
@@ -6169,13 +6171,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>252.1315786412141</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="C27" t="n">
-        <v>77.67854936008709</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="D27" t="n">
-        <v>77.67854936008709</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="E27" t="n">
-        <v>77.67854936008709</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="F27" t="n">
-        <v>77.67854936008709</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="G27" t="n">
-        <v>77.67854936008709</v>
+        <v>53.28343561900761</v>
       </c>
       <c r="H27" t="n">
-        <v>77.67854936008709</v>
+        <v>53.28343561900761</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6312,43 +6314,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V27" t="n">
-        <v>252.1315786412141</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W27" t="n">
-        <v>252.1315786412141</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X27" t="n">
-        <v>252.1315786412141</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y27" t="n">
-        <v>252.1315786412141</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C29" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H29" t="n">
         <v>31.35113235729608</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W29" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>384.2867411876791</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C30" t="n">
-        <v>384.2867411876791</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D30" t="n">
-        <v>325.807288741569</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E30" t="n">
-        <v>166.5698337361135</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6543,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>384.2867411876791</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X30" t="n">
-        <v>384.2867411876791</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y30" t="n">
-        <v>384.2867411876791</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="31">
@@ -6637,25 +6639,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>964.0571555106362</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C33" t="n">
-        <v>817.1412885554689</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="D33" t="n">
-        <v>668.2068788942177</v>
+        <v>372.3205348328715</v>
       </c>
       <c r="E33" t="n">
-        <v>508.9694238887622</v>
+        <v>372.3205348328715</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6780,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6974,13 +6976,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>130.5435506149225</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>130.5435506149225</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>130.5435506149225</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>130.5435506149225</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>130.5435506149225</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7129,13 +7131,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7151,25 +7153,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E38" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F38" t="n">
-        <v>475.3318284112885</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>554.1102621044483</v>
+        <v>365.4316055857233</v>
       </c>
       <c r="C39" t="n">
-        <v>554.1102621044483</v>
+        <v>365.4316055857233</v>
       </c>
       <c r="D39" t="n">
-        <v>554.1102621044483</v>
+        <v>365.4316055857233</v>
       </c>
       <c r="E39" t="n">
-        <v>394.8728070989928</v>
+        <v>206.1941505802678</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>59.65959260715275</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,16 +7259,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7284,19 +7286,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W39" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X39" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y39" t="n">
-        <v>554.1102621044483</v>
+        <v>533.6469426057913</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
         <v>829.5248650203655</v>
@@ -7357,25 +7359,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7436,25 +7438,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>171.2153985321831</v>
       </c>
       <c r="C42" t="n">
         <v>20.03527576299844</v>
@@ -7494,16 +7496,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>934.7112791079849</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>706.487660844374</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>471.3355526126313</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>227.8867759685313</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>20.03527576299844</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>339.4307355522512</v>
       </c>
     </row>
     <row r="43">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>358.0940480307835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W44" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X44" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7601307206374</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>580.3071014395105</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>431.3726917782591</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
         <v>20.03527576299844</v>
@@ -7731,46 +7733,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W45" t="n">
-        <v>862.8876260635219</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X45" t="n">
-        <v>862.8876260635219</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y45" t="n">
-        <v>754.7601307206374</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7783,22 +7785,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -8541,10 +8543,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8778,16 +8780,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O12" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,10 +9017,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O15" t="n">
-        <v>198.1125443848066</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,10 +9485,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9720,22 +9722,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>238.6269471880057</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,19 +10907,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11142,19 +11144,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>299.7352039419416</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11379,10 +11381,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>359.8407857361378</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,13 +22549,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>287.5198830785557</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22592,7 +22594,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22601,16 +22603,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22626,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22793,7 +22795,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>185.9922493601736</v>
+        <v>335.8613673013232</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22866,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22914,16 +22916,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22963,7 +22965,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>49.05569651810563</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23027,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
@@ -23042,7 +23044,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23264,10 +23266,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>335.8613673013232</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
@@ -23279,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23355,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>85.5626750829564</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23397,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23428,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>57.07350359897357</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23440,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23595,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23634,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>247.8610253924609</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23783,16 +23785,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23811,22 +23813,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23859,16 +23861,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>85.56267508295639</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23947,10 +23949,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24032,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>116.4754883813142</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24099,7 +24101,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>81.80124353692524</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24209,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24224,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>199.2828334142264</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>16.96779970570677</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24297,16 +24299,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>53.82736538941106</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24418,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>162.9782053421103</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,16 +24496,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>32.32979199029732</v>
+        <v>56.480954593966</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24576,10 +24578,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24692,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24734,7 +24736,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
@@ -24743,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>185.901842367224</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24762,13 +24764,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>89.55040764298977</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24777,7 +24779,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>40.08552890911985</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24822,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24877,16 +24879,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>179.7131144384051</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24920,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24932,13 +24934,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,28 +24961,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>45.88576731391666</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25014,7 +25016,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25163,19 +25165,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456287</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25214,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25248,13 +25250,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>92.22888498450678</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,13 +25283,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25296,10 +25298,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>109.2483036843516</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="38">
@@ -25391,19 +25393,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>405.0665496686752</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>98.46051323810809</v>
@@ -25412,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25479,19 +25481,19 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>112.9556506218717</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>97.36885216124001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25524,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25564,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25597,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25628,10 +25630,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25646,10 +25648,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y41" t="n">
-        <v>346.4650733326886</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>23.04017744682287</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25755,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>171.1123110561968</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25874,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25910,28 +25912,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>233.3417714764288</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25944,22 +25946,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>98.63647538784875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223277</v>
       </c>
       <c r="C2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="D2" t="n">
+        <v>91388.36989223275</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91388.36989223288</v>
+      </c>
+      <c r="F2" t="n">
+        <v>91388.36989223285</v>
+      </c>
+      <c r="G2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="H2" t="n">
         <v>91388.36989223279</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
         <v>91388.36989223279</v>
-      </c>
-      <c r="F2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="G2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="H2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="I2" t="n">
-        <v>91388.3698922328</v>
       </c>
       <c r="J2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="L2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="M2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="N2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="O2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="P2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="O2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="P2" t="n">
-        <v>91388.36989223283</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.86290078057</v>
+        <v>-37841.86290078059</v>
       </c>
       <c r="C6" t="n">
-        <v>42927.56863076719</v>
+        <v>42927.56863076718</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.56863076716</v>
+        <v>42927.56863076711</v>
       </c>
       <c r="E6" t="n">
+        <v>76555.16863076724</v>
+      </c>
+      <c r="F6" t="n">
+        <v>76555.16863076721</v>
+      </c>
+      <c r="G6" t="n">
+        <v>76555.16863076716</v>
+      </c>
+      <c r="H6" t="n">
         <v>76555.16863076715</v>
       </c>
-      <c r="F6" t="n">
-        <v>76555.16863076716</v>
-      </c>
-      <c r="G6" t="n">
-        <v>76555.16863076718</v>
-      </c>
-      <c r="H6" t="n">
-        <v>76555.16863076716</v>
-      </c>
       <c r="I6" t="n">
-        <v>76555.16863076716</v>
+        <v>76555.16863076715</v>
       </c>
       <c r="J6" t="n">
         <v>13495.22603166095</v>
       </c>
       <c r="K6" t="n">
-        <v>76555.16863076716</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="L6" t="n">
-        <v>76555.16863076716</v>
+        <v>76555.16863076719</v>
       </c>
       <c r="M6" t="n">
         <v>76555.16863076718</v>
       </c>
       <c r="N6" t="n">
+        <v>76555.16863076718</v>
+      </c>
+      <c r="O6" t="n">
+        <v>76555.16863076715</v>
+      </c>
+      <c r="P6" t="n">
         <v>76555.16863076716</v>
-      </c>
-      <c r="O6" t="n">
-        <v>76555.16863076718</v>
-      </c>
-      <c r="P6" t="n">
-        <v>76555.16863076719</v>
       </c>
     </row>
   </sheetData>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34790,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35185,7 +35187,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,10 +35263,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35498,16 +35500,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O12" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35735,10 +35737,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O15" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,10 +36205,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37625,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37789,7 +37791,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38099,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>217.7067518141195</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440041.0145983153</v>
+        <v>337788.7049113789</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5667942.033436031</v>
+        <v>5667942.03343603</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>90.91642501047011</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -980,25 +980,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0507685937734</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>37.10634673358876</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,67 +1141,67 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,52 +1381,52 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>71.01467844038818</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -1511,13 +1511,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="13">
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>52.42556848774752</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -1748,13 +1748,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,25 +1888,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>241.0142888776591</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>118.3634851578964</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>9.73723617201896</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>149.5653839441606</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2411,16 +2411,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,73 +2554,73 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>9.73723617201896</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2648,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>32.91567825744907</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>154.8359655669564</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>58.39471844666277</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="31">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2991,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.19305615617957</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>208.2638363878125</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3107,31 +3107,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>99.18344507946722</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3201,40 +3201,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,19 +3277,19 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>96.52468151912586</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,55 +3514,55 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H38" t="n">
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3590,13 +3590,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>39.97466500197062</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="40">
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>212.285385643442</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>149.6683215414929</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>45.27093583804391</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4155,37 +4155,37 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>266.0282188019862</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>111.1159158480613</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>111.1159158480613</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>111.1159158480613</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>111.1159158480613</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>111.1159158480613</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>111.1159158480613</v>
       </c>
     </row>
     <row r="4">
@@ -4512,10 +4512,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4655,10 +4655,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4702815141908</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X6" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>802.5825927271064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C11" t="n">
-        <v>802.5825927271064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D11" t="n">
-        <v>802.5825927271064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E11" t="n">
-        <v>802.5825927271064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F11" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>802.5825927271064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V11" t="n">
-        <v>802.5825927271064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W11" t="n">
-        <v>802.5825927271064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X11" t="n">
-        <v>802.5825927271064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y11" t="n">
-        <v>802.5825927271064</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5132,10 +5132,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>23.90796037760316</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>23.90796037760316</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5238,13 +5238,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
         <v>19.28114311021272</v>
@@ -5308,22 +5308,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U14" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V14" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W14" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X14" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="15">
@@ -5366,10 +5366,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
         <v>781.4136778972854</v>
@@ -5381,25 +5381,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y15" t="n">
         <v>19.28114311021272</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5454,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5603,43 +5603,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V18" t="n">
-        <v>862.8876260635219</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W18" t="n">
-        <v>862.8876260635219</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X18" t="n">
-        <v>862.8876260635219</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y18" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I19" t="n">
         <v>19.28114311021272</v>
@@ -5709,16 +5709,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.7108255783361</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5782,22 +5782,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5837,16 +5837,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>844.4980795935692</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>844.4980795935692</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>609.3459713618265</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>609.3459713618265</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X21" t="n">
-        <v>401.4944711562937</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5934,19 +5934,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>231.8830517671884</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C23" t="n">
-        <v>231.8830517671884</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D23" t="n">
-        <v>231.8830517671884</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>944.1299480494607</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>718.7806050553886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>475.3318284112885</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V23" t="n">
-        <v>475.3318284112885</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W23" t="n">
-        <v>475.3318284112885</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X23" t="n">
-        <v>231.8830517671884</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y23" t="n">
-        <v>231.8830517671884</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.7568786610034</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
         <v>19.28114311021272</v>
@@ -6180,19 +6180,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>192.0142610363921</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>192.0142610363921</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>192.0142610363921</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>192.0142610363921</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>192.0142610363921</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>53.28343561900761</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>53.28343561900761</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6308,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V27" t="n">
-        <v>360.2295980564601</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W27" t="n">
-        <v>360.2295980564601</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X27" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>467.067986854209</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C29" t="n">
-        <v>467.067986854209</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D29" t="n">
-        <v>467.067986854209</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>467.067986854209</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>467.067986854209</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
         <v>31.35113235729608</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V29" t="n">
-        <v>710.516763498309</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W29" t="n">
-        <v>710.516763498309</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X29" t="n">
-        <v>467.067986854209</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y29" t="n">
-        <v>467.067986854209</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6551,13 +6551,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6575,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
         <v>19.28114311021272</v>
@@ -6639,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>517.4848137278872</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C32" t="n">
-        <v>517.4848137278872</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D32" t="n">
-        <v>274.0360370837871</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E32" t="n">
-        <v>274.0360370837871</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F32" t="n">
-        <v>274.0360370837871</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>274.0360370837871</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>30.58726043968704</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>30.58726043968704</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>517.4848137278872</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>517.4848137278872</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V32" t="n">
-        <v>517.4848137278872</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W32" t="n">
-        <v>517.4848137278872</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X32" t="n">
-        <v>517.4848137278872</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y32" t="n">
-        <v>517.4848137278872</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>372.3205348328715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>372.3205348328715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>689.4702815141908</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>689.4702815141908</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E35" t="n">
-        <v>720.6083788665362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F35" t="n">
-        <v>487.4018176583718</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="G35" t="n">
-        <v>243.9530410142718</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="36">
@@ -7025,16 +7025,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,22 +7043,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>360.2295980564601</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V36" t="n">
-        <v>360.2295980564601</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W36" t="n">
-        <v>116.7808214123601</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
         <v>19.28114311021272</v>
@@ -7134,10 +7134,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D38" t="n">
-        <v>964.0571555106362</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E38" t="n">
-        <v>964.0571555106362</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="F38" t="n">
-        <v>730.8505943024719</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="G38" t="n">
-        <v>487.4018176583718</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>365.4316055857233</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>365.4316055857233</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>365.4316055857233</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>206.1941505802678</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>59.65959260715275</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>533.6469426057913</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>533.6469426057913</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>533.6469426057913</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E41" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C41" t="n">
+      <c r="F41" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D41" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E41" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F41" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7456,7 +7456,7 @@
         <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>171.2153985321831</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
         <v>20.03527576299844</v>
@@ -7493,49 +7493,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W42" t="n">
-        <v>547.1910343172051</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X42" t="n">
-        <v>547.1910343172051</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y42" t="n">
-        <v>339.4307355522512</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="43">
@@ -7599,19 +7599,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
         <v>19.28114311021272</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C44" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y44" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="45">
@@ -7730,13 +7730,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
         <v>542.809531908403</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -7833,25 +7833,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133072</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -8546,7 +8546,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>233.6791982203443</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8780,13 +8780,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>301.2485028631349</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9014,13 +9014,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>301.2485028631349</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,19 +9485,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N30" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>349.0484638974528</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>362.0075757138109</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>54.15278738291377</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,22 +22676,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22752,13 +22752,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>335.8613673013232</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22868,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>126.3942969708654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22965,7 +22965,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>49.05569651810563</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,22 +23029,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23074,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23269,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>335.8613673013232</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23357,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>85.5626750829564</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="13">
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.07350359897357</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>312.3898338622054</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23548,19 +23548,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>170.6702810763838</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>135.0341266295844</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23636,13 +23636,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23703,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>336.5320379404362</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23776,25 +23776,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23813,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23867,19 +23867,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23910,7 +23910,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J19" t="n">
         <v>93.35918011667277</v>
@@ -23949,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23971,7 +23971,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24022,7 +24022,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>145.2236497783945</v>
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>81.80124353692524</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>171.1123110561969</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24226,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>199.2828334142264</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>16.96779970570677</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24299,16 +24299,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24338,13 +24338,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24463,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>199.2828334142264</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>56.480954593966</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>71.10541651401837</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,7 +24697,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>149.1294050414824</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>269.3575400234722</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24779,7 +24779,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>40.08552890911985</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24879,16 +24879,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>179.7131144384051</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24934,13 +24934,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0.7562331984329429</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>43.08181652002401</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24995,31 +24995,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>45.88576731391666</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,19 +25165,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>176.0015501456287</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>105.1858963954562</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25283,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>109.2483036843516</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25402,19 +25402,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>130.1411825545859</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,19 +25438,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25478,13 +25478,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>97.36885216124001</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25523,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="40">
@@ -25596,10 +25596,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25630,19 +25630,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25696,7 +25696,7 @@
         <v>157.445715035027</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>23.04017744682287</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25724,10 +25724,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>66.96450839845255</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25924,7 +25924,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26043,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91388.36989223277</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="C2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="D2" t="n">
-        <v>91388.36989223275</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="E2" t="n">
-        <v>91388.36989223288</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="F2" t="n">
-        <v>91388.36989223285</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="G2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="H2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="I2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="J2" t="n">
         <v>91388.36989223279</v>
       </c>
-      <c r="I2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="J2" t="n">
-        <v>91388.36989223282</v>
-      </c>
       <c r="K2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="L2" t="n">
         <v>91388.36989223283</v>
@@ -26349,10 +26349,10 @@
         <v>91388.36989223282</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="P2" t="n">
         <v>91388.3698922328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.86290078059</v>
+        <v>-50059.87352082101</v>
       </c>
       <c r="C6" t="n">
-        <v>42927.56863076718</v>
+        <v>30709.55801072672</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.56863076711</v>
+        <v>30709.5580107267</v>
       </c>
       <c r="E6" t="n">
-        <v>76555.16863076724</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="F6" t="n">
-        <v>76555.16863076721</v>
+        <v>64337.15801072673</v>
       </c>
       <c r="G6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072673</v>
       </c>
       <c r="H6" t="n">
-        <v>76555.16863076715</v>
+        <v>64337.15801072673</v>
       </c>
       <c r="I6" t="n">
-        <v>76555.16863076715</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="J6" t="n">
-        <v>13495.22603166095</v>
+        <v>1277.215411620455</v>
       </c>
       <c r="K6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072673</v>
       </c>
       <c r="L6" t="n">
-        <v>76555.16863076719</v>
+        <v>64337.15801072673</v>
       </c>
       <c r="M6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="N6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072673</v>
       </c>
       <c r="O6" t="n">
-        <v>76555.16863076715</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="P6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072669</v>
       </c>
     </row>
   </sheetData>
@@ -34710,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35023,13 +35023,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,7 +35266,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>91.0829537758999</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35500,13 +35500,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337788.7049113789</v>
+        <v>429790.5534944771</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>90.91642501047011</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>202.2946864288972</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.79900896488251</v>
+        <v>98.19508828039909</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>202.2946864288972</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>22.43212445296252</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>35.40726547353833</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,58 +1378,58 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T11" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>65.1306020652372</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>113.9035819898745</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,61 +1855,61 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>70.34400780127524</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R17" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1988,10 +1988,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>46.01752716430177</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2022,34 +2022,34 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>230.2038249569697</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>80.33470701582003</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>45.27093583804409</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2225,7 +2225,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>34.66067414728059</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2417,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>146.175361316945</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2478,67 +2478,67 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2599,28 +2599,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.73723617201896</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U27" t="n">
-        <v>154.8359655669564</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>58.39471844666277</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2964,55 +2964,55 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>208.2638363878125</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3170,13 +3170,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>65.13060206523731</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="34">
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,19 +3277,19 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>40.47627913313517</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3359,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>98.22847700514947</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3410,10 +3410,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3523,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>80.33470701582003</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
@@ -3593,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>6.161429646150359</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="G41" t="n">
         <v>241.0142888776591</v>
@@ -3784,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3830,19 +3830,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>111.7765806969846</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>45.27093583804391</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4070,16 +4070,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>35.74905915623028</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.1159158480613</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>111.1159158480613</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>111.1159158480613</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>111.1159158480613</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>562.4161926976942</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>318.9674160535941</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>111.1159158480613</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>111.1159158480613</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4518,22 +4518,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4597,16 +4597,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
         <v>749.627473042513</v>
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
         <v>19.28114311021272</v>
@@ -4655,43 +4655,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>933.9571464551993</v>
+        <v>864.8701976516472</v>
       </c>
       <c r="S6" t="n">
-        <v>933.9571464551993</v>
+        <v>864.8701976516472</v>
       </c>
       <c r="T6" t="n">
-        <v>933.9571464551993</v>
+        <v>864.8701976516472</v>
       </c>
       <c r="U6" t="n">
-        <v>705.7335281915883</v>
+        <v>636.6465793880363</v>
       </c>
       <c r="V6" t="n">
-        <v>470.5814199598456</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="W6" t="n">
-        <v>227.1326433157456</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="7">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>726.1056462496665</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>497.8820279860555</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>262.7299197543128</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="10">
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U11" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V11" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W11" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5144,25 +5144,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U12" t="n">
-        <v>735.8335372470253</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V12" t="n">
-        <v>500.6814290152826</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W12" t="n">
-        <v>257.2326523711826</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X12" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
         <v>19.28114311021272</v>
@@ -5229,13 +5229,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
         <v>19.28114311021272</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5305,25 +5305,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>577.2332497330343</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>333.7844730889342</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V14" t="n">
-        <v>333.7844730889342</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W14" t="n">
-        <v>333.7844730889342</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X14" t="n">
-        <v>90.33569644483418</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y14" t="n">
-        <v>90.33569644483418</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D15" t="n">
         <v>19.28114311021272</v>
@@ -5366,16 +5366,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5387,22 +5387,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>898.2686685760532</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>670.0450503124422</v>
+        <v>646.8164376473068</v>
       </c>
       <c r="V15" t="n">
-        <v>434.8929420806995</v>
+        <v>411.6643294155641</v>
       </c>
       <c r="W15" t="n">
-        <v>434.8929420806995</v>
+        <v>168.215552771464</v>
       </c>
       <c r="X15" t="n">
-        <v>227.0414418751666</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="16">
@@ -5463,25 +5463,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>333.7844730889342</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C17" t="n">
-        <v>333.7844730889342</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D17" t="n">
-        <v>333.7844730889342</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E17" t="n">
-        <v>333.7844730889342</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>333.7844730889342</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V17" t="n">
-        <v>333.7844730889342</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W17" t="n">
-        <v>333.7844730889342</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X17" t="n">
-        <v>333.7844730889342</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y17" t="n">
-        <v>333.7844730889342</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,43 +5603,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>914.2479596093278</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>679.0958513775852</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>435.6470747334852</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X18" t="n">
-        <v>227.7955745279523</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
         <v>19.28114311021272</v>
@@ -5697,28 +5697,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5752,7 +5752,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5776,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U20" t="n">
-        <v>738.7078125165641</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V20" t="n">
-        <v>738.7078125165641</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W20" t="n">
-        <v>738.7078125165641</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X20" t="n">
-        <v>738.7078125165641</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y20" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5840,13 +5840,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>817.1594080452955</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>588.9357897816847</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>353.783681549942</v>
       </c>
       <c r="W21" t="n">
-        <v>55.04605772994853</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="22">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>569.2254314512334</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C23" t="n">
-        <v>325.7766548071333</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D23" t="n">
-        <v>82.32787816303323</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>812.6742080953335</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U23" t="n">
-        <v>812.6742080953335</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V23" t="n">
-        <v>812.6742080953335</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W23" t="n">
-        <v>812.6742080953335</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X23" t="n">
-        <v>569.2254314512334</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y23" t="n">
-        <v>569.2254314512334</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,13 +6077,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>934.7112791079849</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>706.487660844374</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>471.3355526126313</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>227.8867759685313</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
         <v>19.28114311021272</v>
@@ -6186,13 +6186,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>475.3318284112885</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C26" t="n">
-        <v>475.3318284112885</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D26" t="n">
-        <v>231.8830517671884</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8830517671884</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>944.1299480494607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>718.7806050553886</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>718.7806050553886</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V26" t="n">
-        <v>718.7806050553886</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W26" t="n">
-        <v>718.7806050553886</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X26" t="n">
-        <v>475.3318284112885</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y26" t="n">
-        <v>475.3318284112885</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="27">
@@ -6308,34 +6308,34 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U27" t="n">
         <v>706.487660844374</v>
@@ -6417,10 +6417,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C29" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D29" t="n">
-        <v>274.7999090013961</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E29" t="n">
-        <v>274.7999090013961</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>577.2332497330343</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U29" t="n">
-        <v>577.2332497330343</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V29" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W29" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X29" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y29" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
         <v>19.28114311021272</v>
@@ -6660,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6733,19 +6733,19 @@
         <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6788,16 +6788,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6818,10 +6818,10 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
         <v>19.28114311021272</v>
@@ -6882,19 +6882,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>499.3853800778592</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C35" t="n">
-        <v>499.3853800778592</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D35" t="n">
-        <v>499.3853800778592</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E35" t="n">
-        <v>499.3853800778592</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F35" t="n">
-        <v>499.3853800778592</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G35" t="n">
-        <v>255.9366034337592</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>499.3853800778592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V35" t="n">
-        <v>499.3853800778592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W35" t="n">
-        <v>499.3853800778592</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X35" t="n">
-        <v>499.3853800778592</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y35" t="n">
-        <v>499.3853800778592</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>118.5018269537981</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7031,10 +7031,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>913.4938269565423</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="37">
@@ -7119,19 +7119,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100.4273118130612</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C38" t="n">
-        <v>100.4273118130612</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D38" t="n">
-        <v>100.4273118130612</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E38" t="n">
-        <v>100.4273118130612</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F38" t="n">
-        <v>100.4273118130612</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G38" t="n">
-        <v>100.4273118130612</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H38" t="n">
-        <v>100.4273118130612</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>956.199937296544</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>956.199937296544</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>956.199937296544</v>
       </c>
       <c r="T38" t="n">
-        <v>587.3248651012614</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U38" t="n">
-        <v>343.8760884571613</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V38" t="n">
-        <v>100.4273118130612</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W38" t="n">
-        <v>100.4273118130612</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X38" t="n">
-        <v>100.4273118130612</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y38" t="n">
-        <v>100.4273118130612</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,16 +7262,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7286,19 +7286,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="40">
@@ -7356,19 +7356,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C41" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D41" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F41" t="n">
         <v>262.7299197543128</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y41" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>156.0631229240681</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C42" t="n">
-        <v>156.0631229240681</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D42" t="n">
-        <v>156.0631229240681</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0631229240681</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F42" t="n">
-        <v>156.0631229240681</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G42" t="n">
-        <v>156.0631229240681</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7523,19 +7523,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>399.5118995681682</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W42" t="n">
-        <v>156.0631229240681</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X42" t="n">
-        <v>156.0631229240681</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y42" t="n">
-        <v>156.0631229240681</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="43">
@@ -7593,10 +7593,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
         <v>19.28114311021272</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>710.516763498309</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X44" t="n">
-        <v>710.516763498309</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y44" t="n">
-        <v>710.516763498309</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U45" t="n">
-        <v>914.2479596093278</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V45" t="n">
-        <v>679.0958513775852</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W45" t="n">
-        <v>435.6470747334852</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X45" t="n">
-        <v>227.7955745279523</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="46">
@@ -7830,7 +7830,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
         <v>19.28114311021272</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>185.4193833999402</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9014,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>255.5148970497678</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9725,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>357.7767872515269</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>197.6503338623806</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10436,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10679,13 +10679,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5030352242461</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -22549,13 +22549,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22637,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>54.15278738291377</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22685,7 +22685,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="4">
@@ -22719,7 +22719,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -22758,7 +22758,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22837,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>70.35882518776062</v>
+        <v>1.962745872244042</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22925,13 +22925,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>20.80116313523413</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>114.9113927102481</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>64.7505686791048</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23266,13 +23266,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>176.6722207847417</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23469,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>312.3898338622054</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>304.5378186490225</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23579,7 +23579,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23627,22 +23627,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>135.0341266295844</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>112.0378000911004</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>336.5320379404362</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>51.00955661900684</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23831,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23867,7 +23867,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>159.7554580391757</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23910,7 +23910,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
         <v>93.35918011667277</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>176.6722207847417</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24016,7 +24016,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>305.9032316402336</v>
       </c>
     </row>
     <row r="21">
@@ -24068,7 +24068,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>154.8937928567775</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>171.1123110561969</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24208,19 +24208,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>319.5141023699695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>334.968030499315</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24259,19 +24259,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24305,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>171.1123110561968</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>59.59762388653243</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24460,10 +24460,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>109.2709771587974</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>199.2828334142264</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U27" t="n">
-        <v>71.10541651401837</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24688,13 +24688,13 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>404.1096813589555</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>269.3575400234722</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>43.08181652002401</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25058,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>186.5643810956823</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25165,19 +25165,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>105.1858963954562</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>308.7646895842778</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25247,10 +25247,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>14.00696723134699</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25289,7 +25289,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25411,10 +25411,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>130.1411825545859</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>2.212053182593527</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
@@ -25481,19 +25481,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>138.9077827472335</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25636,10 +25636,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>304.5378186490225</v>
       </c>
       <c r="G41" t="n">
         <v>174.288448637476</v>
@@ -25672,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25718,19 +25718,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>33.29263169639931</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>66.96450839845255</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25867,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25918,7 +25918,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25958,16 +25958,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>101.5944580069803</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26070,10 +26070,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="C2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="D2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="C2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="D2" t="n">
-        <v>91388.3698922328</v>
-      </c>
       <c r="E2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="F2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="G2" t="n">
         <v>91388.36989223283</v>
@@ -26334,28 +26334,28 @@
         <v>91388.36989223283</v>
       </c>
       <c r="I2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="J2" t="n">
         <v>91388.36989223282</v>
-      </c>
-      <c r="J2" t="n">
-        <v>91388.36989223279</v>
       </c>
       <c r="K2" t="n">
         <v>91388.36989223283</v>
       </c>
       <c r="L2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="M2" t="n">
         <v>91388.36989223283</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>91388.36989223285</v>
+      </c>
+      <c r="P2" t="n">
         <v>91388.36989223283</v>
-      </c>
-      <c r="O2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="P2" t="n">
-        <v>91388.3698922328</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50059.87352082101</v>
+        <v>-39063.66396278457</v>
       </c>
       <c r="C6" t="n">
-        <v>30709.55801072672</v>
+        <v>41705.76756876311</v>
       </c>
       <c r="D6" t="n">
-        <v>30709.5580107267</v>
+        <v>41705.76756876313</v>
       </c>
       <c r="E6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="F6" t="n">
-        <v>64337.15801072673</v>
+        <v>75333.36756876316</v>
       </c>
       <c r="G6" t="n">
-        <v>64337.15801072673</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="H6" t="n">
-        <v>64337.15801072673</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="I6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="J6" t="n">
-        <v>1277.215411620455</v>
+        <v>12273.4249696569</v>
       </c>
       <c r="K6" t="n">
-        <v>64337.15801072673</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="L6" t="n">
-        <v>64337.15801072673</v>
+        <v>75333.36756876313</v>
       </c>
       <c r="M6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="N6" t="n">
-        <v>64337.15801072673</v>
+        <v>75333.36756876313</v>
       </c>
       <c r="O6" t="n">
-        <v>64337.1580107267</v>
+        <v>75333.36756876316</v>
       </c>
       <c r="P6" t="n">
-        <v>64337.15801072669</v>
+        <v>75333.36756876315</v>
       </c>
     </row>
   </sheetData>
@@ -34710,10 +34710,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>43.28534947792188</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35734,19 +35734,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9067907798017</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>113.3808631277495</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36685,7 +36685,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9067907798016</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37630,7 +37630,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
